--- a/Documentazione/testing.xlsx
+++ b/Documentazione/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFED6B-C8EF-418E-AEDE-4C4B9D06D6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74576CB0-AE78-4C7F-8994-B40548BA7BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="SNAKE" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="338">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -288,9 +288,6 @@
     <t>Check for different levels</t>
   </si>
   <si>
-    <t>Different levels with increasing difficulty</t>
-  </si>
-  <si>
     <t>T024</t>
   </si>
   <si>
@@ -795,15 +792,9 @@
     <t>Joystick movement to the left</t>
   </si>
   <si>
-    <t>Enemies move to the left</t>
-  </si>
-  <si>
     <t>Joystick movement to the right</t>
   </si>
   <si>
-    <t>Enemies move to the right</t>
-  </si>
-  <si>
     <t>Test for shooting</t>
   </si>
   <si>
@@ -897,9 +888,6 @@
     <t>Test for restarting the game</t>
   </si>
   <si>
-    <t>Restarting the game</t>
-  </si>
-  <si>
     <t>The game starts from the beginning</t>
   </si>
   <si>
@@ -955,6 +943,117 @@
   </si>
   <si>
     <t>Checking for collisions between enemy bullets and player</t>
+  </si>
+  <si>
+    <t>Ball is approaching upper part of screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increasing difficulty </t>
+  </si>
+  <si>
+    <t>Rhino initial position</t>
+  </si>
+  <si>
+    <t>(X,Y)</t>
+  </si>
+  <si>
+    <t>Test the paddle inital positon</t>
+  </si>
+  <si>
+    <t>Test the ball inital position</t>
+  </si>
+  <si>
+    <t>Test for spacecraft inital position</t>
+  </si>
+  <si>
+    <t>Test for spacecraft movement</t>
+  </si>
+  <si>
+    <t>spacecraft move to the left</t>
+  </si>
+  <si>
+    <t>spacecraft move to the right</t>
+  </si>
+  <si>
+    <t>Enemies move down</t>
+  </si>
+  <si>
+    <t>Test for enemy generation</t>
+  </si>
+  <si>
+    <t>Enemies spawn is correct</t>
+  </si>
+  <si>
+    <t>Restarting the game after game over</t>
+  </si>
+  <si>
+    <t>Test initial tutorial</t>
+  </si>
+  <si>
+    <t>The instruction screen appears</t>
+  </si>
+  <si>
+    <t>Check initial tutorial</t>
+  </si>
+  <si>
+    <t>T030</t>
+  </si>
+  <si>
+    <t>Test for bullet count display</t>
+  </si>
+  <si>
+    <t>Observing the bullet count display</t>
+  </si>
+  <si>
+    <t>The bullet count display is accurate</t>
+  </si>
+  <si>
+    <t>Test for score display</t>
+  </si>
+  <si>
+    <t>Observing the score display</t>
+  </si>
+  <si>
+    <t>The score display is accurate</t>
+  </si>
+  <si>
+    <t>Test for game level display</t>
+  </si>
+  <si>
+    <t>Observing the game level display</t>
+  </si>
+  <si>
+    <t>The game level display is accurate</t>
+  </si>
+  <si>
+    <t>Test for game difficulty</t>
+  </si>
+  <si>
+    <t>Increasing game difficulty level</t>
+  </si>
+  <si>
+    <t>The game difficulty level increases as expected</t>
+  </si>
+  <si>
+    <t>Test for bullet reuse</t>
+  </si>
+  <si>
+    <t>A bullet hitting an enemy</t>
+  </si>
+  <si>
+    <t>A bullet can be reused after hitting an enemy</t>
+  </si>
+  <si>
+    <t>Test for game performance</t>
+  </si>
+  <si>
+    <t>Checking game performance with increasing number of enemies</t>
+  </si>
+  <si>
+    <t>Game performs smoothly with increasing number of enemies</t>
+  </si>
+  <si>
+    <t>T031</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1064,6 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1096,7 +1196,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB30F000-03FB-434B-A945-DBA47227CD9E}" name="Tabella25" displayName="Tabella25" ref="A1:F30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB30F000-03FB-434B-A945-DBA47227CD9E}" name="Tabella25" displayName="Tabella25" ref="A1:F31" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DD0DF3DF-E9BF-4BD3-BC7B-33EDA905DC9C}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{02FCC9A3-4889-4335-9A50-6803E0BB9995}" name="Test Case Description"/>
@@ -1124,7 +1224,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3A265D5F-1E40-4F1B-82CB-45A68F47ECDF}" name="Tabella2574" displayName="Tabella2574" ref="A1:F30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3A265D5F-1E40-4F1B-82CB-45A68F47ECDF}" name="Tabella2574" displayName="Tabella2574" ref="A1:F32" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DB7487BF-EF58-482E-9C56-59C78CF895F2}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{13CA9100-AFEF-490E-A5E9-B0CB6A281B0B}" name="Test Case Description"/>
@@ -1434,15 +1534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291D7A1B-0970-418E-A302-AB4DB012F806}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
@@ -1480,13 +1580,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>316</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1500,13 +1600,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
+      <c r="D3">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -1520,13 +1620,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1540,13 +1640,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
@@ -1557,13 +1657,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1574,13 +1674,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>34</v>
@@ -1591,13 +1691,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1605,13 +1705,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1619,13 +1719,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1633,10 +1733,10 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -1647,13 +1747,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1664,10 +1764,10 @@
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1678,10 +1778,10 @@
         <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1692,10 +1792,10 @@
         <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1703,13 +1803,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1717,13 +1817,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1731,13 +1831,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1745,13 +1845,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1759,13 +1859,13 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1773,13 +1873,13 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1787,13 +1887,13 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1801,13 +1901,13 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1815,69 +1915,88 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
         <v>92</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -1900,14 +2019,14 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A27" sqref="A27:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="42.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.109375" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
@@ -1936,14 +2055,14 @@
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
+      <c r="B2" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>27</v>
@@ -1954,14 +2073,14 @@
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
+      <c r="B3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>28</v>
@@ -1972,14 +2091,14 @@
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>55</v>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>27</v>
@@ -1990,14 +2109,14 @@
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6"/>
@@ -2006,13 +2125,13 @@
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="8"/>
@@ -2022,14 +2141,14 @@
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
+      <c r="B7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -2038,14 +2157,14 @@
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -2054,14 +2173,14 @@
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>41</v>
+      <c r="B9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
@@ -2070,14 +2189,14 @@
       <c r="A10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>58</v>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="9"/>
@@ -2086,14 +2205,14 @@
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
+      <c r="B11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
@@ -2102,14 +2221,14 @@
       <c r="A12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>64</v>
+      <c r="B12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
@@ -2118,14 +2237,14 @@
       <c r="A13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
@@ -2134,14 +2253,14 @@
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>112</v>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
@@ -2150,14 +2269,14 @@
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>114</v>
+      <c r="D15" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6"/>
@@ -2166,14 +2285,14 @@
       <c r="A16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>116</v>
+      <c r="B16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="9"/>
@@ -2182,14 +2301,14 @@
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
+      <c r="B17" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
@@ -2198,14 +2317,14 @@
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>120</v>
+      <c r="B18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -2214,14 +2333,14 @@
       <c r="A19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>122</v>
+      <c r="B19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
@@ -2230,14 +2349,14 @@
       <c r="A20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>125</v>
+      <c r="B20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
@@ -2246,14 +2365,14 @@
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>127</v>
+      <c r="B21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
@@ -2262,14 +2381,14 @@
       <c r="A22" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>129</v>
+      <c r="B22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="9"/>
@@ -2278,14 +2397,14 @@
       <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>131</v>
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
@@ -2294,72 +2413,82 @@
       <c r="A24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>133</v>
+      <c r="B24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>135</v>
+        <v>82</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>137</v>
+        <v>85</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -2367,6 +2496,7 @@
       <c r="F29" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29" xr:uid="{0C770BF7-2206-447E-9E38-718DCEBD07A3}">
       <formula1>"PASS,FAIL"</formula1>
@@ -2379,10 +2509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F550FCA-071A-4E9B-9E5A-BDD279C4495D}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2419,13 +2549,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -2436,13 +2566,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -2453,13 +2583,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -2470,13 +2600,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2484,13 +2614,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2498,13 +2628,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,13 +2642,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,13 +2656,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,13 +2670,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2554,13 +2684,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2568,13 +2698,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,13 +2712,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -2596,13 +2726,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2610,13 +2740,13 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,13 +2754,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2638,13 +2768,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,13 +2782,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,13 +2796,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2680,13 +2810,13 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2694,13 +2824,13 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2708,13 +2838,13 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2722,13 +2852,13 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2736,94 +2866,117 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C25" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C27" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{B23DBF09-0454-4622-8F3E-7E2477F61BEA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E31" xr:uid="{B23DBF09-0454-4622-8F3E-7E2477F61BEA}">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2836,18 +2989,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76EBDC-CA78-46C2-968E-6F1A2B0B09E8}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2876,13 +3029,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2890,13 +3043,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,13 +3057,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>196</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,13 +3071,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,13 +3085,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,13 +3099,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,13 +3113,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2974,13 +3127,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2988,13 +3141,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -3002,13 +3155,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -3016,13 +3169,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3030,13 +3183,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,13 +3197,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3058,13 +3211,13 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3072,13 +3225,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C16" t="s">
-        <v>225</v>
+        <v>301</v>
       </c>
       <c r="D16" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,13 +3239,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="D17" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -3100,13 +3253,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -3114,13 +3267,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -3128,13 +3281,13 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -3142,13 +3295,13 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C21" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -3156,13 +3309,13 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C22" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -3170,13 +3323,13 @@
         <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -3184,45 +3337,83 @@
         <v>80</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C25" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
+      <c r="D28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{6E4E64F2-0D1C-4508-A334-B0DD4810E4CE}">
       <formula1>"PASS,FAIL"</formula1>
@@ -3237,17 +3428,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767C2F0A-9A6B-4863-86B9-7E42F6E77DE3}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" customWidth="1"/>
   </cols>
@@ -3277,13 +3468,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -3297,13 +3488,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>252</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3317,13 +3508,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -3337,13 +3528,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3354,13 +3545,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3371,13 +3562,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3388,13 +3579,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3405,13 +3596,13 @@
         <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3422,13 +3613,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3439,13 +3630,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3456,13 +3647,13 @@
         <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3473,13 +3664,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -3490,13 +3681,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C14" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3507,13 +3698,13 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3524,13 +3715,13 @@
         <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3541,13 +3732,13 @@
         <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="D17" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3558,13 +3749,13 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C18" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D18" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -3575,13 +3766,13 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -3592,13 +3783,13 @@
         <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -3609,13 +3800,13 @@
         <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D21" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -3626,54 +3817,199 @@
         <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C22" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>77</v>
       </c>
+      <c r="B23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
+      <c r="B24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>299</v>
+      </c>
+      <c r="C26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>319</v>
+      </c>
+      <c r="C27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" t="s">
+        <v>323</v>
+      </c>
+      <c r="D28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>325</v>
+      </c>
+      <c r="C29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" t="s">
+        <v>327</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" t="s">
+        <v>328</v>
+      </c>
+      <c r="C30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" t="s">
+        <v>330</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" t="s">
+        <v>333</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{BC300911-44B9-4069-A874-31BD1D6D3A4F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E32" xr:uid="{BC300911-44B9-4069-A874-31BD1D6D3A4F}">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documentazione/testing.xlsx
+++ b/Documentazione/testing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haroo\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Nintondo\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74576CB0-AE78-4C7F-8994-B40548BA7BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC7F26-9066-4090-A1C2-5BF945E6668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="SNAKE" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="339">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Check initial position of snake head</t>
   </si>
   <si>
-    <t>(4, 4)</t>
-  </si>
-  <si>
     <t>T003</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>Test Case ID: A unique identifier for each test case.</t>
   </si>
   <si>
@@ -1054,6 +1048,15 @@
   </si>
   <si>
     <t>T031</t>
+  </si>
+  <si>
+    <t>(4*8, 4*8)</t>
+  </si>
+  <si>
+    <t>(24, 40)</t>
+  </si>
+  <si>
+    <t>(8,96)</t>
   </si>
 </sst>
 </file>
@@ -1152,18 +1155,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1182,7 +1184,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08884C5F-6F99-4208-B95A-B0DECAF4C774}" name="Tabella2" displayName="Tabella2" ref="A1:F30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08884C5F-6F99-4208-B95A-B0DECAF4C774}" name="Tabella2" displayName="Tabella2" ref="A1:F29" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CCE24C04-1824-4966-B07E-072A29BE37E6}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{44C763C1-D324-4F77-AD17-0A2E1539E4D7}" name="Test Case Description"/>
@@ -1210,7 +1212,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC3AFB91-D29B-4E54-82D6-A83AADCAB183}" name="Tabella257" displayName="Tabella257" ref="A1:F30" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{DC3AFB91-D29B-4E54-82D6-A83AADCAB183}" name="Tabella257" displayName="Tabella257" ref="A1:F28" totalsRowShown="0">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{009E7FD3-9D93-4087-9815-9C833052B89E}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{7D867998-7712-4584-A6DD-7B67FDE5D156}" name="Test Case Description"/>
@@ -1534,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291D7A1B-0970-418E-A302-AB4DB012F806}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,7 +1556,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1572,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1580,19 +1582,22 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,15 +1614,18 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1626,383 +1634,531 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="B25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
         <v>85</v>
       </c>
-      <c r="B26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
         <v>91</v>
       </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>188</v>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{954850A1-959D-49FA-9C3F-CDE8109E515D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29" xr:uid="{954850A1-959D-49FA-9C3F-CDE8109E515D}">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2016,10 +2172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC73CF-1FDE-42EC-8260-5FCB84030C91}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A29"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,7 +2189,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2052,453 +2208,545 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="9"/>
+      <c r="B2" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C21" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="D23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="E23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29" xr:uid="{0C770BF7-2206-447E-9E38-718DCEBD07A3}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28" xr:uid="{0C770BF7-2206-447E-9E38-718DCEBD07A3}">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2511,8 +2759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F550FCA-071A-4E9B-9E5A-BDD279C4495D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,7 +2774,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2549,16 +2797,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2566,411 +2817,579 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
         <v>138</v>
       </c>
-      <c r="C4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
         <v>141</v>
       </c>
-      <c r="C5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" t="s">
-        <v>143</v>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" t="s">
         <v>144</v>
       </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
         <v>147</v>
       </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>149</v>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" t="s">
         <v>162</v>
       </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
         <v>167</v>
       </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>169</v>
       </c>
-      <c r="D17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
         <v>170</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>161</v>
       </c>
-      <c r="D18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>171</v>
       </c>
-      <c r="C19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" t="s">
         <v>172</v>
       </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>173</v>
       </c>
-      <c r="C21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>175</v>
       </c>
-      <c r="C22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>176</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
         <v>177</v>
       </c>
-      <c r="D23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
         <v>178</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
         <v>179</v>
       </c>
-      <c r="C25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D28" t="s">
         <v>181</v>
       </c>
-      <c r="C27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
         <v>183</v>
       </c>
-      <c r="C28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" t="s">
         <v>184</v>
       </c>
-      <c r="C29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>188</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>318</v>
-      </c>
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
       <c r="C31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2989,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76EBDC-CA78-46C2-968E-6F1A2B0B09E8}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3006,7 +3425,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3029,13 +3448,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3043,379 +3468,525 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" t="s">
         <v>189</v>
       </c>
-      <c r="C5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" t="s">
-        <v>191</v>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" t="s">
         <v>192</v>
       </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>194</v>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
         <v>195</v>
       </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>197</v>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="C8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" t="s">
-        <v>200</v>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>205</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" t="s">
         <v>206</v>
       </c>
-      <c r="C10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" t="s">
-        <v>208</v>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" t="s">
         <v>213</v>
       </c>
-      <c r="C11" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" t="s">
-        <v>215</v>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
         <v>218</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" t="s">
-        <v>220</v>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>222</v>
+        <v>220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" t="s">
         <v>201</v>
       </c>
-      <c r="C16" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" t="s">
-        <v>301</v>
-      </c>
-      <c r="D17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" t="s">
         <v>223</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
         <v>224</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
         <v>226</v>
       </c>
-      <c r="C19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>228</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>230</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
         <v>231</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>233</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
         <v>234</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>236</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>237</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" t="s">
         <v>239</v>
       </c>
-      <c r="C24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C26" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" t="s">
         <v>242</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" t="s">
-        <v>242</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>245</v>
       </c>
-      <c r="C28" t="s">
-        <v>246</v>
-      </c>
-      <c r="D28" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>188</v>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30" xr:uid="{6E4E64F2-0D1C-4508-A334-B0DD4810E4CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28" xr:uid="{6E4E64F2-0D1C-4508-A334-B0DD4810E4CE}">
       <formula1>"PASS,FAIL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3430,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767C2F0A-9A6B-4863-86B9-7E42F6E77DE3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3445,7 +4016,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3468,16 +4039,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -3488,16 +4059,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -3505,19 +4076,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -3525,16 +4096,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" t="s">
         <v>308</v>
       </c>
-      <c r="C5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3542,16 +4116,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -3559,16 +4136,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>311</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -3576,16 +4156,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" t="s">
         <v>251</v>
       </c>
-      <c r="C8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" t="s">
-        <v>253</v>
+      <c r="E8" t="s">
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3593,16 +4176,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" t="s">
         <v>254</v>
       </c>
-      <c r="C9" t="s">
-        <v>255</v>
-      </c>
-      <c r="D9" t="s">
-        <v>256</v>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -3610,16 +4196,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
         <v>257</v>
       </c>
-      <c r="C10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D10" t="s">
-        <v>259</v>
+      <c r="E10" t="s">
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
@@ -3627,16 +4216,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -3644,16 +4236,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -3661,16 +4256,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
         <v>264</v>
       </c>
-      <c r="C13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" t="s">
-        <v>266</v>
+      <c r="E13" t="s">
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>7</v>
@@ -3678,16 +4276,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
         <v>267</v>
       </c>
-      <c r="C14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" t="s">
-        <v>269</v>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -3695,16 +4296,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" t="s">
         <v>270</v>
       </c>
-      <c r="C15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" t="s">
-        <v>272</v>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -3712,16 +4316,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" t="s">
         <v>273</v>
       </c>
-      <c r="C16" t="s">
-        <v>274</v>
-      </c>
-      <c r="D16" t="s">
-        <v>275</v>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>7</v>
@@ -3729,16 +4336,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" t="s">
         <v>276</v>
       </c>
-      <c r="C17" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" t="s">
-        <v>278</v>
+      <c r="E17" t="s">
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -3746,16 +4356,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -3763,16 +4376,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>280</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
       </c>
       <c r="F19" t="s">
         <v>7</v>
@@ -3780,16 +4396,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D20" t="s">
         <v>283</v>
       </c>
-      <c r="C20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D20" t="s">
-        <v>285</v>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -3797,16 +4416,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" t="s">
         <v>286</v>
       </c>
-      <c r="C21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" t="s">
-        <v>288</v>
+      <c r="E21" t="s">
+        <v>26</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -3814,16 +4436,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" t="s">
         <v>289</v>
       </c>
-      <c r="C22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D22" t="s">
-        <v>291</v>
+      <c r="E22" t="s">
+        <v>26</v>
       </c>
       <c r="F22" t="s">
         <v>7</v>
@@ -3831,16 +4456,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
+        <v>290</v>
+      </c>
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" t="s">
         <v>292</v>
       </c>
-      <c r="C23" t="s">
-        <v>293</v>
-      </c>
-      <c r="D23" t="s">
-        <v>294</v>
+      <c r="E23" t="s">
+        <v>26</v>
       </c>
       <c r="F23" t="s">
         <v>7</v>
@@ -3848,16 +4476,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
       </c>
       <c r="F24" t="s">
         <v>7</v>
@@ -3865,16 +4496,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D25" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
       </c>
       <c r="F25" t="s">
         <v>7</v>
@@ -3882,16 +4516,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C26" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D26" t="s">
-        <v>291</v>
+        <v>289</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
       </c>
       <c r="F26" t="s">
         <v>7</v>
@@ -3899,16 +4536,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
         <v>319</v>
       </c>
-      <c r="C27" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" t="s">
-        <v>321</v>
+      <c r="E27" t="s">
+        <v>26</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -3916,16 +4556,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C28" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" t="s">
         <v>322</v>
       </c>
-      <c r="C28" t="s">
-        <v>323</v>
-      </c>
-      <c r="D28" t="s">
-        <v>324</v>
+      <c r="E28" t="s">
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
@@ -3933,16 +4576,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>324</v>
+      </c>
+      <c r="D29" t="s">
         <v>325</v>
       </c>
-      <c r="C29" t="s">
-        <v>326</v>
-      </c>
-      <c r="D29" t="s">
-        <v>327</v>
+      <c r="E29" t="s">
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>7</v>
@@ -3950,16 +4596,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
+        <v>326</v>
+      </c>
+      <c r="C30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" t="s">
         <v>328</v>
       </c>
-      <c r="C30" t="s">
-        <v>329</v>
-      </c>
-      <c r="D30" t="s">
-        <v>330</v>
+      <c r="E30" t="s">
+        <v>26</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -3967,16 +4616,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B31" t="s">
+        <v>329</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" t="s">
         <v>331</v>
       </c>
-      <c r="C31" t="s">
-        <v>332</v>
-      </c>
-      <c r="D31" t="s">
-        <v>333</v>
+      <c r="E31" t="s">
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>7</v>
@@ -3984,16 +4636,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" t="s">
         <v>334</v>
       </c>
-      <c r="C32" t="s">
-        <v>335</v>
-      </c>
-      <c r="D32" t="s">
-        <v>336</v>
+      <c r="E32" t="s">
+        <v>26</v>
       </c>
       <c r="F32" t="s">
         <v>7</v>

--- a/Documentazione/testing.xlsx
+++ b/Documentazione/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Nintondo\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EC7F26-9066-4090-A1C2-5BF945E6668B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B6E55-BB9E-4DCF-A37D-D31292A9A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="SNAKE" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="339">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -1050,13 +1050,13 @@
     <t>T031</t>
   </si>
   <si>
-    <t>(4*8, 4*8)</t>
-  </si>
-  <si>
     <t>(24, 40)</t>
   </si>
   <si>
     <t>(8,96)</t>
+  </si>
+  <si>
+    <t>(4*8, 7*8)</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1165,7 +1165,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1538,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291D7A1B-0970-418E-A302-AB4DB012F806}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1611,7 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>3</v>
       </c>
       <c r="E3" t="s">
@@ -1634,7 +1635,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -2174,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC73CF-1FDE-42EC-8260-5FCB84030C91}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2238,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2734,8 +2735,12 @@
       <c r="B28" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="5" t="s">
         <v>26</v>
       </c>
@@ -2759,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F550FCA-071A-4E9B-9E5A-BDD279C4495D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76EBDC-CA78-46C2-968E-6F1A2B0B09E8}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4001,7 +4006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767C2F0A-9A6B-4863-86B9-7E42F6E77DE3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4065,7 +4070,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
